--- a/Take Home/Tables/1__Selected Lags All Criteria_a110.5_T200.xlsx
+++ b/Take Home/Tables/1__Selected Lags All Criteria_a110.5_T200.xlsx
@@ -458,7 +458,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
@@ -468,22 +468,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="C2" t="n">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -496,19 +496,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="C3" t="n">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>982</v>
+        <v>993</v>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
